--- a/HW3/output/results.xlsx
+++ b/HW3/output/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathantan/Desktop/ML/capp30254/HW3/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0718FBC-8E55-D241-9119-C66478EC2D22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A652D2-6FD2-E749-9144-4E0DAE85F3DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="22340" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="27480" windowHeight="22840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,13 +82,13 @@
     <t>classifier</t>
   </si>
   <si>
-    <t>threshold</t>
-  </si>
-  <si>
     <t>test-start</t>
   </si>
   <si>
     <t>test-end</t>
+  </si>
+  <si>
+    <t>threshold</t>
   </si>
   <si>
     <t>LogisticRegression</t>
@@ -156,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,26 +179,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -206,7 +191,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,18 +529,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -634,23 +620,23 @@
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="D2" s="1">
+        <v>0.4</v>
+      </c>
       <c r="E2">
-        <v>0.7117493472584856</v>
+        <v>0.7144965376319673</v>
       </c>
       <c r="F2">
-        <v>0.65523836435528848</v>
+        <v>0.65523834914847257</v>
       </c>
       <c r="G2">
-        <v>0.82327886194705036</v>
+        <v>0.83179732748358104</v>
       </c>
       <c r="H2">
         <v>0.8545454545454545</v>
@@ -674,7 +660,7 @@
         <v>0.81177912996094814</v>
       </c>
       <c r="O2">
-        <v>0.73363929546018358</v>
+        <v>0.71926253209650926</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -698,50 +684,48 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.93787263732081694</v>
+        <v>0.9860776354179881</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0.69183429778635064</v>
+        <v>0.71395164036780567</v>
       </c>
       <c r="F3">
-        <v>0.64779817591167721</v>
+        <v>0.65524114973706549</v>
       </c>
       <c r="G3">
-        <v>0.8120658749719919</v>
+        <v>0.82743223438206248</v>
       </c>
       <c r="H3">
-        <v>0.8990825688073395</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="I3">
-        <v>0.91724137931034477</v>
+        <v>0.86606129398410892</v>
       </c>
       <c r="J3">
-        <v>0.88429752066115708</v>
+        <v>0.88646684831970934</v>
       </c>
       <c r="K3">
-        <v>0.86724850711988977</v>
+        <v>0.88010899182561309</v>
       </c>
       <c r="L3">
-        <v>0.83444316877152702</v>
+        <v>0.85889431263480531</v>
       </c>
       <c r="M3">
-        <v>0.81429883649724433</v>
+        <v>0.84289390040865753</v>
       </c>
       <c r="N3">
-        <v>0.77569578396252414</v>
+        <v>0.81177912996094814</v>
       </c>
       <c r="O3">
-        <v>0.69670319108035372</v>
+        <v>0.7282349253803313</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -765,50 +749,48 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9732142857142857</v>
+        <v>0.95791576810858814</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1">
+        <v>0.55000000000000004</v>
       </c>
       <c r="E4">
-        <v>0.72033200085441396</v>
+        <v>0.70911567714837098</v>
       </c>
       <c r="F4">
-        <v>0.63070340985642503</v>
+        <v>0.6552383871655123</v>
       </c>
       <c r="G4">
-        <v>0.8286691716673209</v>
+        <v>0.81911619370323319</v>
       </c>
       <c r="H4">
-        <v>0.90853658536585369</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="I4">
-        <v>0.90839694656488545</v>
+        <v>0.86606129398410892</v>
       </c>
       <c r="J4">
-        <v>0.89200732153752293</v>
+        <v>0.88646684831970934</v>
       </c>
       <c r="K4">
-        <v>0.87885260909368323</v>
+        <v>0.87988192552225253</v>
       </c>
       <c r="L4">
-        <v>0.86115349404943542</v>
+        <v>0.85889431263480531</v>
       </c>
       <c r="M4">
-        <v>0.8465059505645407</v>
+        <v>0.84296957772059933</v>
       </c>
       <c r="N4">
-        <v>0.81722201879653367</v>
+        <v>0.81177912996094814</v>
       </c>
       <c r="O4">
-        <v>0.76065618779600519</v>
+        <v>0.73818006005394676</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -832,54 +814,48 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0.91003900636419621</v>
+        <v>0.91998604592160349</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1">
+        <v>0.6</v>
       </c>
       <c r="E5">
-        <v>0.71529117947553633</v>
+        <v>0.69517538880690199</v>
       </c>
       <c r="F5">
-        <v>0.61261300425662091</v>
+        <v>0.65524111932343376</v>
       </c>
       <c r="G5">
-        <v>0.83345728856778589</v>
+        <v>0.80038062386630582</v>
       </c>
       <c r="H5">
-        <v>0.84772727272727277</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="I5">
-        <v>0.82746878547105562</v>
+        <v>0.86606129398410892</v>
       </c>
       <c r="J5">
-        <v>0.8705722070844687</v>
+        <v>0.88646684831970934</v>
       </c>
       <c r="K5">
-        <v>0.87511353315168028</v>
+        <v>0.88010899182561309</v>
       </c>
       <c r="L5">
-        <v>0.84345555681689177</v>
+        <v>0.85889431263480531</v>
       </c>
       <c r="M5">
-        <v>0.81587710004540637</v>
+        <v>0.84289390040865753</v>
       </c>
       <c r="N5">
-        <v>0.77962946144764322</v>
+        <v>0.81177912996094814</v>
       </c>
       <c r="O5">
-        <v>0.71698199433324195</v>
+        <v>0.75340088450988074</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -903,50 +879,48 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0.99511607256120771</v>
+        <v>0.85360903209438033</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0.68489942132818959</v>
+        <v>0.60958111022817574</v>
       </c>
       <c r="F6">
-        <v>0.61080804813929079</v>
+        <v>0.65523865328479036</v>
       </c>
       <c r="G6">
-        <v>0.81077801373452107</v>
+        <v>0.68750454314167342</v>
       </c>
       <c r="H6">
-        <v>0.87614678899082565</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="I6">
-        <v>0.88275862068965516</v>
+        <v>0.86606129398410892</v>
       </c>
       <c r="J6">
-        <v>0.87603305785123964</v>
+        <v>0.88646684831970934</v>
       </c>
       <c r="K6">
-        <v>0.86173633440514474</v>
+        <v>0.88010899182561309</v>
       </c>
       <c r="L6">
-        <v>0.82227324913892075</v>
+        <v>0.85889431263480531</v>
       </c>
       <c r="M6">
-        <v>0.78704837721984078</v>
+        <v>0.84289390040865753</v>
       </c>
       <c r="N6">
-        <v>0.7516303848626803</v>
+        <v>0.81173372082462991</v>
       </c>
       <c r="O6">
-        <v>0.68805879324064967</v>
+        <v>0.80507320394960846</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -970,50 +944,52 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.98677497314715357</v>
+        <v>0.59989851579347964</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.4</v>
       </c>
       <c r="E7">
-        <v>0.73116474932104603</v>
+        <v>0.68554239000642969</v>
       </c>
       <c r="F7">
-        <v>0.59276463460708329</v>
+        <v>0.64778069501319446</v>
       </c>
       <c r="G7">
-        <v>0.84299258625605933</v>
+        <v>0.8124058193375161</v>
       </c>
       <c r="H7">
-        <v>0.82012195121951215</v>
+        <v>0.8990825688073395</v>
       </c>
       <c r="I7">
-        <v>0.7969465648854962</v>
+        <v>0.91724137931034477</v>
       </c>
       <c r="J7">
-        <v>0.8553996339231239</v>
+        <v>0.88337924701561066</v>
       </c>
       <c r="K7">
-        <v>0.87335978028684769</v>
+        <v>0.86724850711988977</v>
       </c>
       <c r="L7">
-        <v>0.85215135794934393</v>
+        <v>0.83421354764638345</v>
       </c>
       <c r="M7">
-        <v>0.81944868273827687</v>
+        <v>0.81399265156154321</v>
       </c>
       <c r="N7">
-        <v>0.79183449285975838</v>
+        <v>0.77587948929916417</v>
       </c>
       <c r="O7">
-        <v>0.74474918915514687</v>
+        <v>0.68629357033745308</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1037,54 +1013,48 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0.97109423116403204</v>
+        <v>0.99530075187969924</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1">
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0.71390623226245886</v>
+        <v>0.68981353908331033</v>
       </c>
       <c r="F8">
-        <v>0.65764284073904755</v>
+        <v>0.64779782453683332</v>
       </c>
       <c r="G8">
-        <v>0.82913203248945722</v>
+        <v>0.81288785460992918</v>
       </c>
       <c r="H8">
-        <v>0.92045454545454541</v>
+        <v>0.8990825688073395</v>
       </c>
       <c r="I8">
-        <v>0.91486946651532353</v>
+        <v>0.91724137931034477</v>
       </c>
       <c r="J8">
-        <v>0.90554041780199823</v>
+        <v>0.88429752066115708</v>
       </c>
       <c r="K8">
-        <v>0.88828337874659402</v>
+        <v>0.86724850711988977</v>
       </c>
       <c r="L8">
-        <v>0.86275400158928373</v>
+        <v>0.83444316877152702</v>
       </c>
       <c r="M8">
-        <v>0.84516421976691392</v>
+        <v>0.81429883649724433</v>
       </c>
       <c r="N8">
-        <v>0.81355008627735903</v>
+        <v>0.77569578396252414</v>
       </c>
       <c r="O8">
-        <v>0.72422124837143198</v>
+        <v>0.69202830188679243</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1108,50 +1078,48 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.96958645185842951</v>
+        <v>0.98489527389903331</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1">
+        <v>0.55000000000000004</v>
       </c>
       <c r="E9">
-        <v>0.68760907504363</v>
+        <v>0.69270689813539088</v>
       </c>
       <c r="F9">
-        <v>0.65017685671933334</v>
+        <v>0.64779798070343064</v>
       </c>
       <c r="G9">
-        <v>0.81236897274633113</v>
+        <v>0.8107160032815639</v>
       </c>
       <c r="H9">
-        <v>0.91743119266055051</v>
+        <v>0.8990825688073395</v>
       </c>
       <c r="I9">
         <v>0.91724137931034477</v>
       </c>
       <c r="J9">
-        <v>0.88888888888888884</v>
+        <v>0.88429752066115708</v>
       </c>
       <c r="K9">
-        <v>0.86908589802480474</v>
+        <v>0.86724850711988977</v>
       </c>
       <c r="L9">
-        <v>0.83513203214695753</v>
+        <v>0.83444316877152702</v>
       </c>
       <c r="M9">
-        <v>0.81383955909369254</v>
+        <v>0.81429883649724433</v>
       </c>
       <c r="N9">
-        <v>0.77744098466060441</v>
+        <v>0.77569578396252414</v>
       </c>
       <c r="O9">
-        <v>0.68950177935943058</v>
+        <v>0.70058182173764239</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1175,50 +1143,48 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.98852040816326525</v>
+        <v>0.96193609022556392</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1">
+        <v>0.6</v>
       </c>
       <c r="E10">
-        <v>0.73293460681700284</v>
+        <v>0.68737944337282997</v>
       </c>
       <c r="F10">
-        <v>0.6308277880144223</v>
+        <v>0.64779786357848257</v>
       </c>
       <c r="G10">
-        <v>0.84131703956195381</v>
+        <v>0.79918576865209301</v>
       </c>
       <c r="H10">
-        <v>0.90853658536585369</v>
+        <v>0.8990825688073395</v>
       </c>
       <c r="I10">
-        <v>0.90534351145038172</v>
+        <v>0.91724137931034477</v>
       </c>
       <c r="J10">
-        <v>0.89078706528370954</v>
+        <v>0.88429752066115708</v>
       </c>
       <c r="K10">
-        <v>0.88342996643271288</v>
+        <v>0.86724850711988977</v>
       </c>
       <c r="L10">
-        <v>0.8623741226731767</v>
+        <v>0.83444316877152702</v>
       </c>
       <c r="M10">
-        <v>0.84813345539619567</v>
+        <v>0.81429883649724433</v>
       </c>
       <c r="N10">
-        <v>0.81734407420969124</v>
+        <v>0.77569578396252414</v>
       </c>
       <c r="O10">
-        <v>0.75330367869086656</v>
+        <v>0.71285721804115576</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -1242,54 +1208,48 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0.95261753233422297</v>
+        <v>0.90930451127819545</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1">
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0.66783970938812576</v>
+        <v>0.61858179480113895</v>
       </c>
       <c r="F11">
-        <v>0.63478205931086018</v>
+        <v>0.64779811734920323</v>
       </c>
       <c r="G11">
-        <v>0.77281197589912431</v>
+        <v>0.69712993690966785</v>
       </c>
       <c r="H11">
-        <v>0.87045454545454548</v>
+        <v>0.8990825688073395</v>
       </c>
       <c r="I11">
-        <v>0.88081725312145287</v>
+        <v>0.91724137931034477</v>
       </c>
       <c r="J11">
-        <v>0.87783832879200729</v>
+        <v>0.88429752066115708</v>
       </c>
       <c r="K11">
-        <v>0.87738419618528607</v>
+        <v>0.86724850711988977</v>
       </c>
       <c r="L11">
-        <v>0.85151549551594963</v>
+        <v>0.83444316877152702</v>
       </c>
       <c r="M11">
-        <v>0.83192069017708492</v>
+        <v>0.81429883649724433</v>
       </c>
       <c r="N11">
-        <v>0.79720279720279719</v>
+        <v>0.77569578396252414</v>
       </c>
       <c r="O11">
-        <v>0.75715068159688415</v>
+        <v>0.76311377245508982</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1313,50 +1273,52 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0.78913484713941395</v>
+        <v>0.64164876476906552</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.4</v>
       </c>
       <c r="E12">
-        <v>0.6578028841737853</v>
+        <v>0.74105153947087365</v>
       </c>
       <c r="F12">
-        <v>0.62093213831269489</v>
+        <v>0.63070298052882234</v>
       </c>
       <c r="G12">
-        <v>0.76739612274841573</v>
+        <v>0.84941619050999051</v>
       </c>
       <c r="H12">
-        <v>0.81192660550458717</v>
+        <v>0.90853658536585369</v>
       </c>
       <c r="I12">
-        <v>0.81839080459770119</v>
+        <v>0.90839694656488545</v>
       </c>
       <c r="J12">
-        <v>0.83287419651056016</v>
+        <v>0.89200732153752293</v>
       </c>
       <c r="K12">
-        <v>0.842443729903537</v>
+        <v>0.87885260909368323</v>
       </c>
       <c r="L12">
-        <v>0.81354764638346733</v>
+        <v>0.86115349404943542</v>
       </c>
       <c r="M12">
-        <v>0.79960195958358848</v>
+        <v>0.8465059505645407</v>
       </c>
       <c r="N12">
-        <v>0.76127491503628175</v>
+        <v>0.81722201879653367</v>
       </c>
       <c r="O12">
-        <v>0.71722005018381285</v>
+        <v>0.74796087377730558</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1380,50 +1342,48 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0.82512083780880774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.98271402176144529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1">
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>0.66488663757590549</v>
+        <v>0.72915077354978486</v>
       </c>
       <c r="F13">
-        <v>0.61410559497780381</v>
+        <v>0.6307028780756444</v>
       </c>
       <c r="G13">
-        <v>0.77293027871970887</v>
+        <v>0.83743589743589741</v>
       </c>
       <c r="H13">
-        <v>0.85365853658536583</v>
+        <v>0.90853658536585369</v>
       </c>
       <c r="I13">
-        <v>0.87633587786259537</v>
+        <v>0.90839694656488545</v>
       </c>
       <c r="J13">
-        <v>0.88041488712629656</v>
+        <v>0.89200732153752293</v>
       </c>
       <c r="K13">
-        <v>0.87244430881904178</v>
+        <v>0.87885260909368323</v>
       </c>
       <c r="L13">
-        <v>0.85215135794934393</v>
+        <v>0.86115349404943542</v>
       </c>
       <c r="M13">
-        <v>0.83277387854745188</v>
+        <v>0.8465059505645407</v>
       </c>
       <c r="N13">
-        <v>0.80873916758208231</v>
+        <v>0.81716099108995488</v>
       </c>
       <c r="O13">
-        <v>0.77849972926819111</v>
+        <v>0.75589353612167298</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1447,54 +1407,48 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0.76743995072880311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>0.9386984192157668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1">
+        <v>0.55000000000000004</v>
       </c>
       <c r="E14">
-        <v>0.50318991940061297</v>
+        <v>0.71197094992523879</v>
       </c>
       <c r="F14">
-        <v>0.66342745140892623</v>
+        <v>0.63070324885857398</v>
       </c>
       <c r="G14">
-        <v>0.50857887172116423</v>
+        <v>0.82056156492975696</v>
       </c>
       <c r="H14">
-        <v>0.98863636363636365</v>
+        <v>0.90853658536585369</v>
       </c>
       <c r="I14">
-        <v>0.96821793416572077</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.95322434150772029</v>
+        <v>0.90839694656488545</v>
+      </c>
+      <c r="J14">
+        <v>0.89200732153752293</v>
       </c>
       <c r="K14">
-        <v>0.93006357856494093</v>
+        <v>0.87885260909368323</v>
       </c>
       <c r="L14">
-        <v>0.90452945850834376</v>
+        <v>0.86115349404943542</v>
       </c>
       <c r="M14">
-        <v>0.871268082486919</v>
+        <v>0.8465059505645407</v>
       </c>
       <c r="N14">
-        <v>0.871268082486919</v>
+        <v>0.81722201879653367</v>
       </c>
       <c r="O14">
-        <v>0.871268082486919</v>
+        <v>0.76401869158878499</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1512,56 +1466,54 @@
         <v>1</v>
       </c>
       <c r="U14">
-        <v>0.98537986250108778</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0.6308429438965959</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.35909552200938732</v>
+        <v>0.88614247587764317</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1">
+        <v>0.6</v>
       </c>
       <c r="E15">
-        <v>0.52649949481032421</v>
+        <v>0.68517896921058252</v>
       </c>
       <c r="F15">
-        <v>0.66614681409209897</v>
+        <v>0.63070343912876159</v>
       </c>
       <c r="G15">
-        <v>0.52259677718095943</v>
+        <v>0.7918742813338443</v>
       </c>
       <c r="H15">
-        <v>0.97247706422018354</v>
+        <v>0.90853658536585369</v>
       </c>
       <c r="I15">
-        <v>0.91724137931034477</v>
+        <v>0.90839694656488545</v>
       </c>
       <c r="J15">
-        <v>0.90909090909090906</v>
+        <v>0.89200732153752293</v>
       </c>
       <c r="K15">
-        <v>0.89986219568213133</v>
+        <v>0.87885260909368323</v>
       </c>
       <c r="L15">
-        <v>0.87256027554535021</v>
+        <v>0.86115349404943542</v>
       </c>
       <c r="M15">
-        <v>0.84308022045315367</v>
+        <v>0.8465059505645407</v>
       </c>
       <c r="N15">
-        <v>0.84223880597014922</v>
+        <v>0.81722201879653367</v>
       </c>
       <c r="O15">
-        <v>0.84223880597014922</v>
+        <v>0.77835501269035534</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1582,53 +1534,51 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>0.64981575310916628</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.37882653061224492</v>
+        <v>0.80587148429480604</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1">
+        <v>0.7</v>
       </c>
       <c r="E16">
-        <v>0.50151048182844593</v>
+        <v>0.57465442006652223</v>
       </c>
       <c r="F16">
-        <v>0.64889099313622245</v>
+        <v>0.63070340985642503</v>
       </c>
       <c r="G16">
-        <v>0.53732865073071256</v>
+        <v>0.65828246426907899</v>
       </c>
       <c r="H16">
-        <v>0.96646341463414631</v>
+        <v>0.90853658536585369</v>
       </c>
       <c r="I16">
-        <v>0.94503816793893125</v>
+        <v>0.90839694656488545</v>
       </c>
       <c r="J16">
-        <v>0.94203782794386826</v>
+        <v>0.89200732153752293</v>
       </c>
       <c r="K16">
-        <v>0.92584681110772049</v>
+        <v>0.87885260909368323</v>
       </c>
       <c r="L16">
-        <v>0.89838266707354286</v>
+        <v>0.86115349404943542</v>
       </c>
       <c r="M16">
-        <v>0.87102024209134365</v>
+        <v>0.8465059505645407</v>
       </c>
       <c r="N16">
-        <v>0.8660640920295809</v>
+        <v>0.81722201879653367</v>
       </c>
       <c r="O16">
-        <v>0.8660640920295809</v>
+        <v>0.81686541737649065</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1649,57 +1599,57 @@
         <v>1</v>
       </c>
       <c r="V16">
-        <v>0.69899049443666639</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0.38948881133237528</v>
+        <v>0.5512625744200369</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="D17" s="1">
+        <v>0.4</v>
+      </c>
       <c r="E17">
-        <v>0.66550119196276536</v>
+        <v>0.71581337268702461</v>
       </c>
       <c r="F17">
-        <v>0.63627120703259687</v>
+        <v>0.61261300425662091</v>
       </c>
       <c r="G17">
-        <v>0.76850557013340037</v>
+        <v>0.83424046190722134</v>
       </c>
       <c r="H17">
-        <v>0.88409090909090904</v>
+        <v>0.84772727272727277</v>
       </c>
       <c r="I17">
-        <v>0.87400681044267881</v>
+        <v>0.82746878547105562</v>
       </c>
       <c r="J17">
-        <v>0.88010899182561309</v>
+        <v>0.8705722070844687</v>
       </c>
       <c r="K17">
-        <v>0.87897366030881019</v>
+        <v>0.87511353315168028</v>
       </c>
       <c r="L17">
-        <v>0.8531047792030878</v>
+        <v>0.84345555681689177</v>
       </c>
       <c r="M17">
-        <v>0.83313152716815497</v>
+        <v>0.81587710004540637</v>
       </c>
       <c r="N17">
-        <v>0.79488693125056764</v>
+        <v>0.77962946144764322</v>
       </c>
       <c r="O17">
-        <v>0.76157702967830343</v>
+        <v>0.71617289284009</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1723,50 +1673,48 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0.77556133451731579</v>
+        <v>0.99892173030572118</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1">
+        <v>0.5</v>
       </c>
       <c r="E18">
-        <v>0.65550656746578484</v>
+        <v>0.71531388352820979</v>
       </c>
       <c r="F18">
-        <v>0.62107458665044202</v>
+        <v>0.61261300425662091</v>
       </c>
       <c r="G18">
-        <v>0.76267915335210557</v>
+        <v>0.83349489423293976</v>
       </c>
       <c r="H18">
-        <v>0.83027522935779818</v>
+        <v>0.84772727272727277</v>
       </c>
       <c r="I18">
-        <v>0.81839080459770119</v>
+        <v>0.82746878547105562</v>
       </c>
       <c r="J18">
-        <v>0.83746556473829203</v>
+        <v>0.8705722070844687</v>
       </c>
       <c r="K18">
-        <v>0.84382177308222328</v>
+        <v>0.87511353315168028</v>
       </c>
       <c r="L18">
-        <v>0.81079219288174509</v>
+        <v>0.84345555681689177</v>
       </c>
       <c r="M18">
-        <v>0.79562155541947333</v>
+        <v>0.81587710004540637</v>
       </c>
       <c r="N18">
-        <v>0.75989712501148154</v>
+        <v>0.77962946144764322</v>
       </c>
       <c r="O18">
-        <v>0.72126144455747709</v>
+        <v>0.71693889206167905</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1790,92 +1738,4912 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0.8091433941997852</v>
+        <v>0.99530635544843338</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E19">
+        <v>0.71474628221137471</v>
+      </c>
+      <c r="F19">
+        <v>0.61261300425662091</v>
+      </c>
+      <c r="G19">
+        <v>0.83292553191489371</v>
+      </c>
+      <c r="H19">
+        <v>0.84772727272727277</v>
+      </c>
+      <c r="I19">
+        <v>0.82746878547105562</v>
+      </c>
+      <c r="J19">
+        <v>0.8705722070844687</v>
+      </c>
+      <c r="K19">
+        <v>0.87511353315168028</v>
+      </c>
+      <c r="L19">
+        <v>0.84345555681689177</v>
+      </c>
+      <c r="M19">
+        <v>0.81587710004540637</v>
+      </c>
+      <c r="N19">
+        <v>0.77962946144764322</v>
+      </c>
+      <c r="O19">
+        <v>0.71718420811578276</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0.99321324368895092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E20">
+        <v>0.69887614939266662</v>
+      </c>
+      <c r="F20">
+        <v>0.61261300425662091</v>
+      </c>
+      <c r="G20">
+        <v>0.81326819378546178</v>
+      </c>
+      <c r="H20">
+        <v>0.84772727272727277</v>
+      </c>
+      <c r="I20">
+        <v>0.82746878547105562</v>
+      </c>
+      <c r="J20">
+        <v>0.8705722070844687</v>
+      </c>
+      <c r="K20">
+        <v>0.87511353315168028</v>
+      </c>
+      <c r="L20">
+        <v>0.84345555681689177</v>
+      </c>
+      <c r="M20">
+        <v>0.81587710004540637</v>
+      </c>
+      <c r="N20">
+        <v>0.77962946144764322</v>
+      </c>
+      <c r="O20">
+        <v>0.73128244081529303</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>0.91595839147532665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E21">
+        <v>0.59548189351799297</v>
+      </c>
+      <c r="F21">
+        <v>0.61261300425662091</v>
+      </c>
+      <c r="G21">
+        <v>0.68634803274359646</v>
+      </c>
+      <c r="H21">
+        <v>0.84772727272727277</v>
+      </c>
+      <c r="I21">
+        <v>0.82746878547105562</v>
+      </c>
+      <c r="J21">
+        <v>0.8705722070844687</v>
+      </c>
+      <c r="K21">
+        <v>0.87511353315168028</v>
+      </c>
+      <c r="L21">
+        <v>0.84345555681689177</v>
+      </c>
+      <c r="M21">
+        <v>0.81587710004540637</v>
+      </c>
+      <c r="N21">
+        <v>0.77962946144764322</v>
+      </c>
+      <c r="O21">
+        <v>0.77133699996043203</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>0.61822910059621972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E22">
+        <v>0.68407274731330947</v>
+      </c>
+      <c r="F22">
+        <v>0.61080804813929079</v>
+      </c>
+      <c r="G22">
+        <v>0.81226973773981381</v>
+      </c>
+      <c r="H22">
+        <v>0.87614678899082565</v>
+      </c>
+      <c r="I22">
+        <v>0.88275862068965516</v>
+      </c>
+      <c r="J22">
+        <v>0.87603305785123964</v>
+      </c>
+      <c r="K22">
+        <v>0.86173633440514474</v>
+      </c>
+      <c r="L22">
+        <v>0.82227324913892075</v>
+      </c>
+      <c r="M22">
+        <v>0.78704837721984078</v>
+      </c>
+      <c r="N22">
+        <v>0.7516303848626803</v>
+      </c>
+      <c r="O22">
+        <v>0.68432427461259027</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0.99906015037593987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>0.68379718930834943</v>
+      </c>
+      <c r="F23">
+        <v>0.61080804813929079</v>
+      </c>
+      <c r="G23">
+        <v>0.81177724924136796</v>
+      </c>
+      <c r="H23">
+        <v>0.87614678899082565</v>
+      </c>
+      <c r="I23">
+        <v>0.88275862068965516</v>
+      </c>
+      <c r="J23">
+        <v>0.87603305785123964</v>
+      </c>
+      <c r="K23">
+        <v>0.86173633440514474</v>
+      </c>
+      <c r="L23">
+        <v>0.82227324913892075</v>
+      </c>
+      <c r="M23">
+        <v>0.78704837721984078</v>
+      </c>
+      <c r="N23">
+        <v>0.7516303848626803</v>
+      </c>
+      <c r="O23">
+        <v>0.68472997278974312</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0.99671052631578949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E24">
+        <v>0.68480756865986958</v>
+      </c>
+      <c r="F24">
+        <v>0.61080804813929079</v>
+      </c>
+      <c r="G24">
+        <v>0.81061839454731088</v>
+      </c>
+      <c r="H24">
+        <v>0.87614678899082565</v>
+      </c>
+      <c r="I24">
+        <v>0.88275862068965516</v>
+      </c>
+      <c r="J24">
+        <v>0.87603305785123964</v>
+      </c>
+      <c r="K24">
+        <v>0.86173633440514474</v>
+      </c>
+      <c r="L24">
+        <v>0.82227324913892075</v>
+      </c>
+      <c r="M24">
+        <v>0.78704837721984078</v>
+      </c>
+      <c r="N24">
+        <v>0.7516303848626803</v>
+      </c>
+      <c r="O24">
+        <v>0.68818816473785316</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0.9860365198711063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E25">
+        <v>0.68154679893450909</v>
+      </c>
+      <c r="F25">
+        <v>0.61080804813929079</v>
+      </c>
+      <c r="G25">
+        <v>0.80463202975318382</v>
+      </c>
+      <c r="H25">
+        <v>0.87614678899082565</v>
+      </c>
+      <c r="I25">
+        <v>0.88275862068965516</v>
+      </c>
+      <c r="J25">
+        <v>0.87603305785123964</v>
+      </c>
+      <c r="K25">
+        <v>0.86173633440514474</v>
+      </c>
+      <c r="L25">
+        <v>0.82227324913892075</v>
+      </c>
+      <c r="M25">
+        <v>0.78704837721984078</v>
+      </c>
+      <c r="N25">
+        <v>0.7516303848626803</v>
+      </c>
+      <c r="O25">
+        <v>0.69328995921538161</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0.95857948442534913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E26">
+        <v>0.59938458712225595</v>
+      </c>
+      <c r="F26">
+        <v>0.61080804813929079</v>
+      </c>
+      <c r="G26">
+        <v>0.68695496142113754</v>
+      </c>
+      <c r="H26">
+        <v>0.87614678899082565</v>
+      </c>
+      <c r="I26">
+        <v>0.88275862068965516</v>
+      </c>
+      <c r="J26">
+        <v>0.87603305785123964</v>
+      </c>
+      <c r="K26">
+        <v>0.86173633440514474</v>
+      </c>
+      <c r="L26">
+        <v>0.82227324913892075</v>
+      </c>
+      <c r="M26">
+        <v>0.78704837721984078</v>
+      </c>
+      <c r="N26">
+        <v>0.7516303848626803</v>
+      </c>
+      <c r="O26">
+        <v>0.73799059295242497</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>0.64252148227712136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E19">
+      <c r="D27" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E27">
+        <v>0.74233316041622166</v>
+      </c>
+      <c r="F27">
+        <v>0.59276463460708329</v>
+      </c>
+      <c r="G27">
+        <v>0.85193757671401016</v>
+      </c>
+      <c r="H27">
+        <v>0.82012195121951215</v>
+      </c>
+      <c r="I27">
+        <v>0.7969465648854962</v>
+      </c>
+      <c r="J27">
+        <v>0.8553996339231239</v>
+      </c>
+      <c r="K27">
+        <v>0.87335978028684769</v>
+      </c>
+      <c r="L27">
+        <v>0.85215135794934393</v>
+      </c>
+      <c r="M27">
+        <v>0.81944868273827687</v>
+      </c>
+      <c r="N27">
+        <v>0.79183449285975838</v>
+      </c>
+      <c r="O27">
+        <v>0.74347360367253257</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>0.99745432149455959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>0.73150041194958959</v>
+      </c>
+      <c r="F28">
+        <v>0.59276463460708329</v>
+      </c>
+      <c r="G28">
+        <v>0.84330311826616566</v>
+      </c>
+      <c r="H28">
+        <v>0.82012195121951215</v>
+      </c>
+      <c r="I28">
+        <v>0.7969465648854962</v>
+      </c>
+      <c r="J28">
+        <v>0.8553996339231239</v>
+      </c>
+      <c r="K28">
+        <v>0.87335978028684769</v>
+      </c>
+      <c r="L28">
+        <v>0.85215135794934393</v>
+      </c>
+      <c r="M28">
+        <v>0.81944868273827687</v>
+      </c>
+      <c r="N28">
+        <v>0.79183449285975838</v>
+      </c>
+      <c r="O28">
+        <v>0.74460657903012772</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0.97216177376308766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E29">
+        <v>0.72722834213176279</v>
+      </c>
+      <c r="F29">
+        <v>0.59276463460708329</v>
+      </c>
+      <c r="G29">
+        <v>0.8399548815641058</v>
+      </c>
+      <c r="H29">
+        <v>0.82012195121951215</v>
+      </c>
+      <c r="I29">
+        <v>0.7969465648854962</v>
+      </c>
+      <c r="J29">
+        <v>0.8553996339231239</v>
+      </c>
+      <c r="K29">
+        <v>0.87335978028684769</v>
+      </c>
+      <c r="L29">
+        <v>0.85215135794934393</v>
+      </c>
+      <c r="M29">
+        <v>0.81944868273827687</v>
+      </c>
+      <c r="N29">
+        <v>0.79183449285975838</v>
+      </c>
+      <c r="O29">
+        <v>0.74471395009206931</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0.96312872100184765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E30">
+        <v>0.69375362363064907</v>
+      </c>
+      <c r="F30">
+        <v>0.59276463460708329</v>
+      </c>
+      <c r="G30">
+        <v>0.80722984134301412</v>
+      </c>
+      <c r="H30">
+        <v>0.82012195121951215</v>
+      </c>
+      <c r="I30">
+        <v>0.7969465648854962</v>
+      </c>
+      <c r="J30">
+        <v>0.8553996339231239</v>
+      </c>
+      <c r="K30">
+        <v>0.87335978028684769</v>
+      </c>
+      <c r="L30">
+        <v>0.85215135794934393</v>
+      </c>
+      <c r="M30">
+        <v>0.81944868273827687</v>
+      </c>
+      <c r="N30">
+        <v>0.79183449285975838</v>
+      </c>
+      <c r="O30">
+        <v>0.75840040422997801</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>0.86277971669061793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E31">
+        <v>0.48607000091544361</v>
+      </c>
+      <c r="F31">
+        <v>0.59276463460708329</v>
+      </c>
+      <c r="G31">
+        <v>0.53923177938279709</v>
+      </c>
+      <c r="H31">
+        <v>0.82012195121951215</v>
+      </c>
+      <c r="I31">
+        <v>0.7969465648854962</v>
+      </c>
+      <c r="J31">
+        <v>0.8553996339231239</v>
+      </c>
+      <c r="K31">
+        <v>0.87335978028684769</v>
+      </c>
+      <c r="L31">
+        <v>0.85215135794934393</v>
+      </c>
+      <c r="M31">
+        <v>0.81944868273827687</v>
+      </c>
+      <c r="N31">
+        <v>0.80798557022218576</v>
+      </c>
+      <c r="O31">
+        <v>0.80798557022218576</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0.75953757225433527</v>
+      </c>
+      <c r="W31">
+        <v>0.40463970437281871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E32">
+        <v>0.71390623226245886</v>
+      </c>
+      <c r="F32">
+        <v>0.65764284073904755</v>
+      </c>
+      <c r="G32">
+        <v>0.82913203248945722</v>
+      </c>
+      <c r="H32">
+        <v>0.92045454545454541</v>
+      </c>
+      <c r="I32">
+        <v>0.91486946651532353</v>
+      </c>
+      <c r="J32">
+        <v>0.90554041780199823</v>
+      </c>
+      <c r="K32">
+        <v>0.88828337874659402</v>
+      </c>
+      <c r="L32">
+        <v>0.86275400158928373</v>
+      </c>
+      <c r="M32">
+        <v>0.84516421976691392</v>
+      </c>
+      <c r="N32">
+        <v>0.81355008627735903</v>
+      </c>
+      <c r="O32">
+        <v>0.72422124837143198</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>0.96958645185842951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.71390623226245886</v>
+      </c>
+      <c r="F33">
+        <v>0.65764284073904755</v>
+      </c>
+      <c r="G33">
+        <v>0.82913203248945722</v>
+      </c>
+      <c r="H33">
+        <v>0.92045454545454541</v>
+      </c>
+      <c r="I33">
+        <v>0.91486946651532353</v>
+      </c>
+      <c r="J33">
+        <v>0.90554041780199823</v>
+      </c>
+      <c r="K33">
+        <v>0.88828337874659402</v>
+      </c>
+      <c r="L33">
+        <v>0.86275400158928373</v>
+      </c>
+      <c r="M33">
+        <v>0.84516421976691392</v>
+      </c>
+      <c r="N33">
+        <v>0.81355008627735903</v>
+      </c>
+      <c r="O33">
+        <v>0.72422124837143198</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>0.96958645185842951</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E34">
+        <v>0.71390623226245886</v>
+      </c>
+      <c r="F34">
+        <v>0.65764284073904755</v>
+      </c>
+      <c r="G34">
+        <v>0.82913203248945722</v>
+      </c>
+      <c r="H34">
+        <v>0.92045454545454541</v>
+      </c>
+      <c r="I34">
+        <v>0.91486946651532353</v>
+      </c>
+      <c r="J34">
+        <v>0.90554041780199823</v>
+      </c>
+      <c r="K34">
+        <v>0.88828337874659402</v>
+      </c>
+      <c r="L34">
+        <v>0.86275400158928373</v>
+      </c>
+      <c r="M34">
+        <v>0.84516421976691392</v>
+      </c>
+      <c r="N34">
+        <v>0.81355008627735903</v>
+      </c>
+      <c r="O34">
+        <v>0.72422124837143198</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>0.96958645185842951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E35">
+        <v>0.71390623226245886</v>
+      </c>
+      <c r="F35">
+        <v>0.65764284073904755</v>
+      </c>
+      <c r="G35">
+        <v>0.82913203248945722</v>
+      </c>
+      <c r="H35">
+        <v>0.92045454545454541</v>
+      </c>
+      <c r="I35">
+        <v>0.91486946651532353</v>
+      </c>
+      <c r="J35">
+        <v>0.90554041780199823</v>
+      </c>
+      <c r="K35">
+        <v>0.88828337874659402</v>
+      </c>
+      <c r="L35">
+        <v>0.86275400158928373</v>
+      </c>
+      <c r="M35">
+        <v>0.84516421976691392</v>
+      </c>
+      <c r="N35">
+        <v>0.81355008627735903</v>
+      </c>
+      <c r="O35">
+        <v>0.72422124837143198</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>0.96958645185842951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E36">
+        <v>0.71390623226245886</v>
+      </c>
+      <c r="F36">
+        <v>0.65764284073904755</v>
+      </c>
+      <c r="G36">
+        <v>0.82913203248945722</v>
+      </c>
+      <c r="H36">
+        <v>0.92045454545454541</v>
+      </c>
+      <c r="I36">
+        <v>0.91486946651532353</v>
+      </c>
+      <c r="J36">
+        <v>0.90554041780199823</v>
+      </c>
+      <c r="K36">
+        <v>0.88828337874659402</v>
+      </c>
+      <c r="L36">
+        <v>0.86275400158928373</v>
+      </c>
+      <c r="M36">
+        <v>0.84516421976691392</v>
+      </c>
+      <c r="N36">
+        <v>0.81355008627735903</v>
+      </c>
+      <c r="O36">
+        <v>0.72422124837143198</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>0.96958645185842951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E37">
+        <v>0.68760907504363</v>
+      </c>
+      <c r="F37">
+        <v>0.65017685671933334</v>
+      </c>
+      <c r="G37">
+        <v>0.81236897274633113</v>
+      </c>
+      <c r="H37">
+        <v>0.91743119266055051</v>
+      </c>
+      <c r="I37">
+        <v>0.91724137931034477</v>
+      </c>
+      <c r="J37">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="K37">
+        <v>0.86908589802480474</v>
+      </c>
+      <c r="L37">
+        <v>0.83513203214695753</v>
+      </c>
+      <c r="M37">
+        <v>0.81383955909369254</v>
+      </c>
+      <c r="N37">
+        <v>0.77744098466060441</v>
+      </c>
+      <c r="O37">
+        <v>0.68950177935943058</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>0.98852040816326525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E38">
+        <v>0.68760907504363</v>
+      </c>
+      <c r="F38">
+        <v>0.65017685671933334</v>
+      </c>
+      <c r="G38">
+        <v>0.81236897274633113</v>
+      </c>
+      <c r="H38">
+        <v>0.91743119266055051</v>
+      </c>
+      <c r="I38">
+        <v>0.91724137931034477</v>
+      </c>
+      <c r="J38">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="K38">
+        <v>0.86908589802480474</v>
+      </c>
+      <c r="L38">
+        <v>0.83513203214695753</v>
+      </c>
+      <c r="M38">
+        <v>0.81383955909369254</v>
+      </c>
+      <c r="N38">
+        <v>0.77744098466060441</v>
+      </c>
+      <c r="O38">
+        <v>0.68950177935943058</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0.98852040816326525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E39">
+        <v>0.68760907504363</v>
+      </c>
+      <c r="F39">
+        <v>0.65017685671933334</v>
+      </c>
+      <c r="G39">
+        <v>0.81236897274633113</v>
+      </c>
+      <c r="H39">
+        <v>0.91743119266055051</v>
+      </c>
+      <c r="I39">
+        <v>0.91724137931034477</v>
+      </c>
+      <c r="J39">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="K39">
+        <v>0.86908589802480474</v>
+      </c>
+      <c r="L39">
+        <v>0.83513203214695753</v>
+      </c>
+      <c r="M39">
+        <v>0.81383955909369254</v>
+      </c>
+      <c r="N39">
+        <v>0.77744098466060441</v>
+      </c>
+      <c r="O39">
+        <v>0.68950177935943058</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>0.98852040816326525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E40">
+        <v>0.68760907504363</v>
+      </c>
+      <c r="F40">
+        <v>0.65017685671933334</v>
+      </c>
+      <c r="G40">
+        <v>0.81236897274633113</v>
+      </c>
+      <c r="H40">
+        <v>0.91743119266055051</v>
+      </c>
+      <c r="I40">
+        <v>0.91724137931034477</v>
+      </c>
+      <c r="J40">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="K40">
+        <v>0.86908589802480474</v>
+      </c>
+      <c r="L40">
+        <v>0.83513203214695753</v>
+      </c>
+      <c r="M40">
+        <v>0.81383955909369254</v>
+      </c>
+      <c r="N40">
+        <v>0.77744098466060441</v>
+      </c>
+      <c r="O40">
+        <v>0.68950177935943058</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>0.98852040816326525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E41">
+        <v>0.68760907504363</v>
+      </c>
+      <c r="F41">
+        <v>0.65017685671933334</v>
+      </c>
+      <c r="G41">
+        <v>0.81236897274633113</v>
+      </c>
+      <c r="H41">
+        <v>0.91743119266055051</v>
+      </c>
+      <c r="I41">
+        <v>0.91724137931034477</v>
+      </c>
+      <c r="J41">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="K41">
+        <v>0.86908589802480474</v>
+      </c>
+      <c r="L41">
+        <v>0.83513203214695753</v>
+      </c>
+      <c r="M41">
+        <v>0.81383955909369254</v>
+      </c>
+      <c r="N41">
+        <v>0.77744098466060441</v>
+      </c>
+      <c r="O41">
+        <v>0.68950177935943058</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>0.98852040816326525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E42">
+        <v>0.73293460681700284</v>
+      </c>
+      <c r="F42">
+        <v>0.6308277880144223</v>
+      </c>
+      <c r="G42">
+        <v>0.84131703956195381</v>
+      </c>
+      <c r="H42">
+        <v>0.90853658536585369</v>
+      </c>
+      <c r="I42">
+        <v>0.90534351145038172</v>
+      </c>
+      <c r="J42">
+        <v>0.89078706528370954</v>
+      </c>
+      <c r="K42">
+        <v>0.88342996643271288</v>
+      </c>
+      <c r="L42">
+        <v>0.8623741226731767</v>
+      </c>
+      <c r="M42">
+        <v>0.84813345539619567</v>
+      </c>
+      <c r="N42">
+        <v>0.81734407420969124</v>
+      </c>
+      <c r="O42">
+        <v>0.75330367869086656</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>0.95261753233422297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E43">
+        <v>0.73293460681700284</v>
+      </c>
+      <c r="F43">
+        <v>0.6308277880144223</v>
+      </c>
+      <c r="G43">
+        <v>0.84131703956195381</v>
+      </c>
+      <c r="H43">
+        <v>0.90853658536585369</v>
+      </c>
+      <c r="I43">
+        <v>0.90534351145038172</v>
+      </c>
+      <c r="J43">
+        <v>0.89078706528370954</v>
+      </c>
+      <c r="K43">
+        <v>0.88342996643271288</v>
+      </c>
+      <c r="L43">
+        <v>0.8623741226731767</v>
+      </c>
+      <c r="M43">
+        <v>0.84813345539619567</v>
+      </c>
+      <c r="N43">
+        <v>0.81734407420969124</v>
+      </c>
+      <c r="O43">
+        <v>0.75330367869086656</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>0.95261753233422297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E44">
+        <v>0.73293460681700284</v>
+      </c>
+      <c r="F44">
+        <v>0.6308277880144223</v>
+      </c>
+      <c r="G44">
+        <v>0.84131703956195381</v>
+      </c>
+      <c r="H44">
+        <v>0.90853658536585369</v>
+      </c>
+      <c r="I44">
+        <v>0.90534351145038172</v>
+      </c>
+      <c r="J44">
+        <v>0.89078706528370954</v>
+      </c>
+      <c r="K44">
+        <v>0.88342996643271288</v>
+      </c>
+      <c r="L44">
+        <v>0.8623741226731767</v>
+      </c>
+      <c r="M44">
+        <v>0.84813345539619567</v>
+      </c>
+      <c r="N44">
+        <v>0.81734407420969124</v>
+      </c>
+      <c r="O44">
+        <v>0.75330367869086656</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>0.95261753233422297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E45">
+        <v>0.73293460681700284</v>
+      </c>
+      <c r="F45">
+        <v>0.6308277880144223</v>
+      </c>
+      <c r="G45">
+        <v>0.84131703956195381</v>
+      </c>
+      <c r="H45">
+        <v>0.90853658536585369</v>
+      </c>
+      <c r="I45">
+        <v>0.90534351145038172</v>
+      </c>
+      <c r="J45">
+        <v>0.89078706528370954</v>
+      </c>
+      <c r="K45">
+        <v>0.88342996643271288</v>
+      </c>
+      <c r="L45">
+        <v>0.8623741226731767</v>
+      </c>
+      <c r="M45">
+        <v>0.84813345539619567</v>
+      </c>
+      <c r="N45">
+        <v>0.81734407420969124</v>
+      </c>
+      <c r="O45">
+        <v>0.75330367869086656</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>0.95261753233422297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E46">
+        <v>0.73293460681700284</v>
+      </c>
+      <c r="F46">
+        <v>0.6308277880144223</v>
+      </c>
+      <c r="G46">
+        <v>0.84131703956195381</v>
+      </c>
+      <c r="H46">
+        <v>0.90853658536585369</v>
+      </c>
+      <c r="I46">
+        <v>0.90534351145038172</v>
+      </c>
+      <c r="J46">
+        <v>0.89078706528370954</v>
+      </c>
+      <c r="K46">
+        <v>0.88342996643271288</v>
+      </c>
+      <c r="L46">
+        <v>0.8623741226731767</v>
+      </c>
+      <c r="M46">
+        <v>0.84813345539619567</v>
+      </c>
+      <c r="N46">
+        <v>0.81734407420969124</v>
+      </c>
+      <c r="O46">
+        <v>0.75330367869086656</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>0.95261753233422297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E47">
+        <v>0.70954705414916563</v>
+      </c>
+      <c r="F47">
+        <v>0.63478205931086018</v>
+      </c>
+      <c r="G47">
+        <v>0.82328401917312455</v>
+      </c>
+      <c r="H47">
+        <v>0.87045454545454548</v>
+      </c>
+      <c r="I47">
+        <v>0.88081725312145287</v>
+      </c>
+      <c r="J47">
+        <v>0.87783832879200729</v>
+      </c>
+      <c r="K47">
+        <v>0.87738419618528607</v>
+      </c>
+      <c r="L47">
+        <v>0.85151549551594963</v>
+      </c>
+      <c r="M47">
+        <v>0.83192069017708492</v>
+      </c>
+      <c r="N47">
+        <v>0.79720279720279719</v>
+      </c>
+      <c r="O47">
+        <v>0.7293017792026627</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>0.94507167322085506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E48">
+        <v>0.69501646043818821</v>
+      </c>
+      <c r="F48">
+        <v>0.63478205931086018</v>
+      </c>
+      <c r="G48">
+        <v>0.80606926819408942</v>
+      </c>
+      <c r="H48">
+        <v>0.87045454545454548</v>
+      </c>
+      <c r="I48">
+        <v>0.88081725312145287</v>
+      </c>
+      <c r="J48">
+        <v>0.87783832879200729</v>
+      </c>
+      <c r="K48">
+        <v>0.87738419618528607</v>
+      </c>
+      <c r="L48">
+        <v>0.85151549551594963</v>
+      </c>
+      <c r="M48">
+        <v>0.83192069017708492</v>
+      </c>
+      <c r="N48">
+        <v>0.79720279720279719</v>
+      </c>
+      <c r="O48">
+        <v>0.7398171458857824</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>0.88535456044653049</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E49">
+        <v>0.66781700533545241</v>
+      </c>
+      <c r="F49">
+        <v>0.63478205931086018</v>
+      </c>
+      <c r="G49">
+        <v>0.77275762988273666</v>
+      </c>
+      <c r="H49">
+        <v>0.87045454545454548</v>
+      </c>
+      <c r="I49">
+        <v>0.88081725312145287</v>
+      </c>
+      <c r="J49">
+        <v>0.87783832879200729</v>
+      </c>
+      <c r="K49">
+        <v>0.87738419618528607</v>
+      </c>
+      <c r="L49">
+        <v>0.85151549551594963</v>
+      </c>
+      <c r="M49">
+        <v>0.83192069017708492</v>
+      </c>
+      <c r="N49">
+        <v>0.79720279720279719</v>
+      </c>
+      <c r="O49">
+        <v>0.75722156271877761</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>0.78894456425218829</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E50">
+        <v>0.66772618912475878</v>
+      </c>
+      <c r="F50">
+        <v>0.63478205931086018</v>
+      </c>
+      <c r="G50">
+        <v>0.77263193872636593</v>
+      </c>
+      <c r="H50">
+        <v>0.87045454545454548</v>
+      </c>
+      <c r="I50">
+        <v>0.88081725312145287</v>
+      </c>
+      <c r="J50">
+        <v>0.87783832879200729</v>
+      </c>
+      <c r="K50">
+        <v>0.87738419618528607</v>
+      </c>
+      <c r="L50">
+        <v>0.85151549551594963</v>
+      </c>
+      <c r="M50">
+        <v>0.83192069017708492</v>
+      </c>
+      <c r="N50">
+        <v>0.79720279720279719</v>
+      </c>
+      <c r="O50">
+        <v>0.75730165981422259</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>0.78859571229227454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E51">
+        <v>0.62474741741400841</v>
+      </c>
+      <c r="F51">
+        <v>0.63478205931086018</v>
+      </c>
+      <c r="G51">
+        <v>0.71632568996292734</v>
+      </c>
+      <c r="H51">
+        <v>0.87045454545454548</v>
+      </c>
+      <c r="I51">
+        <v>0.88081725312145287</v>
+      </c>
+      <c r="J51">
+        <v>0.87783832879200729</v>
+      </c>
+      <c r="K51">
+        <v>0.87738419618528607</v>
+      </c>
+      <c r="L51">
+        <v>0.85151549551594963</v>
+      </c>
+      <c r="M51">
+        <v>0.83192069017708492</v>
+      </c>
+      <c r="N51">
+        <v>0.79720279720279719</v>
+      </c>
+      <c r="O51">
+        <v>0.78063743827622323</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>0.66180388177089944</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E52">
+        <v>0.68150087260034908</v>
+      </c>
+      <c r="F52">
+        <v>0.62093213831269489</v>
+      </c>
+      <c r="G52">
+        <v>0.80475238604690458</v>
+      </c>
+      <c r="H52">
+        <v>0.81192660550458717</v>
+      </c>
+      <c r="I52">
+        <v>0.81839080459770119</v>
+      </c>
+      <c r="J52">
+        <v>0.83287419651056016</v>
+      </c>
+      <c r="K52">
+        <v>0.842443729903537</v>
+      </c>
+      <c r="L52">
+        <v>0.81354764638346733</v>
+      </c>
+      <c r="M52">
+        <v>0.79960195958358848</v>
+      </c>
+      <c r="N52">
+        <v>0.76127491503628175</v>
+      </c>
+      <c r="O52">
+        <v>0.69301265577268101</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>0.95945220193340497</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E53">
+        <v>0.67497933314962799</v>
+      </c>
+      <c r="F53">
+        <v>0.62093213831269489</v>
+      </c>
+      <c r="G53">
+        <v>0.79290668071284365</v>
+      </c>
+      <c r="H53">
+        <v>0.81192660550458717</v>
+      </c>
+      <c r="I53">
+        <v>0.81839080459770119</v>
+      </c>
+      <c r="J53">
+        <v>0.83287419651056016</v>
+      </c>
+      <c r="K53">
+        <v>0.842443729903537</v>
+      </c>
+      <c r="L53">
+        <v>0.81354764638346733</v>
+      </c>
+      <c r="M53">
+        <v>0.79960195958358848</v>
+      </c>
+      <c r="N53">
+        <v>0.76127491503628175</v>
+      </c>
+      <c r="O53">
+        <v>0.70280645328629976</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>0.90950590762620842</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E54">
+        <v>0.6578028841737853</v>
+      </c>
+      <c r="F54">
+        <v>0.62093213831269489</v>
+      </c>
+      <c r="G54">
+        <v>0.76736707358955947</v>
+      </c>
+      <c r="H54">
+        <v>0.81192660550458717</v>
+      </c>
+      <c r="I54">
+        <v>0.81839080459770119</v>
+      </c>
+      <c r="J54">
+        <v>0.83287419651056016</v>
+      </c>
+      <c r="K54">
+        <v>0.842443729903537</v>
+      </c>
+      <c r="L54">
+        <v>0.81354764638346733</v>
+      </c>
+      <c r="M54">
+        <v>0.79960195958358848</v>
+      </c>
+      <c r="N54">
+        <v>0.76127491503628175</v>
+      </c>
+      <c r="O54">
+        <v>0.71727076402264633</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>0.82498657357679916</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E55">
+        <v>0.65775695783962529</v>
+      </c>
+      <c r="F55">
+        <v>0.62093213831269489</v>
+      </c>
+      <c r="G55">
+        <v>0.76729952535598311</v>
+      </c>
+      <c r="H55">
+        <v>0.81192660550458717</v>
+      </c>
+      <c r="I55">
+        <v>0.81839080459770119</v>
+      </c>
+      <c r="J55">
+        <v>0.83287419651056016</v>
+      </c>
+      <c r="K55">
+        <v>0.842443729903537</v>
+      </c>
+      <c r="L55">
+        <v>0.81354764638346733</v>
+      </c>
+      <c r="M55">
+        <v>0.79960195958358848</v>
+      </c>
+      <c r="N55">
+        <v>0.76127491503628175</v>
+      </c>
+      <c r="O55">
+        <v>0.71730499766464273</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>0.8247851772287863</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E56">
+        <v>0.6241388812344999</v>
+      </c>
+      <c r="F56">
+        <v>0.62093213831269489</v>
+      </c>
+      <c r="G56">
+        <v>0.71794871794871806</v>
+      </c>
+      <c r="H56">
+        <v>0.81192660550458717</v>
+      </c>
+      <c r="I56">
+        <v>0.81839080459770119</v>
+      </c>
+      <c r="J56">
+        <v>0.83287419651056016</v>
+      </c>
+      <c r="K56">
+        <v>0.842443729903537</v>
+      </c>
+      <c r="L56">
+        <v>0.81354764638346733</v>
+      </c>
+      <c r="M56">
+        <v>0.79960195958358848</v>
+      </c>
+      <c r="N56">
+        <v>0.76127491503628175</v>
+      </c>
+      <c r="O56">
+        <v>0.73767705382436266</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>0.6992481203007519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E57">
+        <v>0.72661804644350192</v>
+      </c>
+      <c r="F57">
+        <v>0.61410559497780381</v>
+      </c>
+      <c r="G57">
+        <v>0.83604487308529918</v>
+      </c>
+      <c r="H57">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="I57">
+        <v>0.87633587786259537</v>
+      </c>
+      <c r="J57">
+        <v>0.88041488712629656</v>
+      </c>
+      <c r="K57">
+        <v>0.87244430881904178</v>
+      </c>
+      <c r="L57">
+        <v>0.85215135794934393</v>
+      </c>
+      <c r="M57">
+        <v>0.83277387854745188</v>
+      </c>
+      <c r="N57">
+        <v>0.80873916758208231</v>
+      </c>
+      <c r="O57">
+        <v>0.75416006339144215</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>0.93787723260110856</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E58">
+        <v>0.70565438955173787</v>
+      </c>
+      <c r="F58">
+        <v>0.61410559497780381</v>
+      </c>
+      <c r="G58">
+        <v>0.81497679057812555</v>
+      </c>
+      <c r="H58">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="I58">
+        <v>0.87633587786259537</v>
+      </c>
+      <c r="J58">
+        <v>0.88041488712629656</v>
+      </c>
+      <c r="K58">
+        <v>0.87244430881904178</v>
+      </c>
+      <c r="L58">
+        <v>0.85215135794934393</v>
+      </c>
+      <c r="M58">
+        <v>0.83277387854745188</v>
+      </c>
+      <c r="N58">
+        <v>0.80873916758208231</v>
+      </c>
+      <c r="O58">
+        <v>0.76475035098455668</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>0.87226442208991994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E59">
+        <v>0.66482560800707946</v>
+      </c>
+      <c r="F59">
+        <v>0.61410559497780381</v>
+      </c>
+      <c r="G59">
+        <v>0.77287953351805128</v>
+      </c>
+      <c r="H59">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="I59">
+        <v>0.87633587786259537</v>
+      </c>
+      <c r="J59">
+        <v>0.88041488712629656</v>
+      </c>
+      <c r="K59">
+        <v>0.87244430881904178</v>
+      </c>
+      <c r="L59">
+        <v>0.85215135794934393</v>
+      </c>
+      <c r="M59">
+        <v>0.83277387854745188</v>
+      </c>
+      <c r="N59">
+        <v>0.80873916758208231</v>
+      </c>
+      <c r="O59">
+        <v>0.7784812762944141</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>0.76735783206733732</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E60">
+        <v>0.66476457843825332</v>
+      </c>
+      <c r="F60">
+        <v>0.61410559497780381</v>
+      </c>
+      <c r="G60">
+        <v>0.77280059560739556</v>
+      </c>
+      <c r="H60">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="I60">
+        <v>0.87633587786259537</v>
+      </c>
+      <c r="J60">
+        <v>0.88041488712629656</v>
+      </c>
+      <c r="K60">
+        <v>0.87244430881904178</v>
+      </c>
+      <c r="L60">
+        <v>0.85215135794934393</v>
+      </c>
+      <c r="M60">
+        <v>0.83277387854745188</v>
+      </c>
+      <c r="N60">
+        <v>0.80873916758208231</v>
+      </c>
+      <c r="O60">
+        <v>0.77853243885161882</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <v>0.76715253541367279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E61">
+        <v>0.60495560098867907</v>
+      </c>
+      <c r="F61">
+        <v>0.61410559497780381</v>
+      </c>
+      <c r="G61">
+        <v>0.70269153040602605</v>
+      </c>
+      <c r="H61">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="I61">
+        <v>0.87633587786259537</v>
+      </c>
+      <c r="J61">
+        <v>0.88041488712629656</v>
+      </c>
+      <c r="K61">
+        <v>0.87244430881904178</v>
+      </c>
+      <c r="L61">
+        <v>0.85215135794934393</v>
+      </c>
+      <c r="M61">
+        <v>0.83277387854745188</v>
+      </c>
+      <c r="N61">
+        <v>0.80873916758208231</v>
+      </c>
+      <c r="O61">
+        <v>0.79727969148991606</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>0.6281667008827756</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E62">
+        <v>0.71590418889771823</v>
+      </c>
+      <c r="F62">
+        <v>0.66342745140892623</v>
+      </c>
+      <c r="G62">
+        <v>0.83443375630152028</v>
+      </c>
+      <c r="H62">
+        <v>0.98863636363636365</v>
+      </c>
+      <c r="I62">
+        <v>0.96821793416572077</v>
+      </c>
+      <c r="J62">
+        <v>0.95322434150772029</v>
+      </c>
+      <c r="K62">
+        <v>0.93006357856494093</v>
+      </c>
+      <c r="L62">
+        <v>0.90452945850834376</v>
+      </c>
+      <c r="M62">
+        <v>0.86960799152414103</v>
+      </c>
+      <c r="N62">
+        <v>0.81504858777586053</v>
+      </c>
+      <c r="O62">
+        <v>0.71590418889771823</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E63">
+        <v>0.71445112952662049</v>
+      </c>
+      <c r="F63">
+        <v>0.66342745140892623</v>
+      </c>
+      <c r="G63">
+        <v>0.82928153547528882</v>
+      </c>
+      <c r="H63">
+        <v>0.98863636363636365</v>
+      </c>
+      <c r="I63">
+        <v>0.96821793416572077</v>
+      </c>
+      <c r="J63">
+        <v>0.95322434150772029</v>
+      </c>
+      <c r="K63">
+        <v>0.93006357856494093</v>
+      </c>
+      <c r="L63">
+        <v>0.90452945850834376</v>
+      </c>
+      <c r="M63">
+        <v>0.86960799152414103</v>
+      </c>
+      <c r="N63">
+        <v>0.81504858777586053</v>
+      </c>
+      <c r="O63">
+        <v>0.72491041552955693</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>0.96876189268045165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E64">
+        <v>0.35327505959813832</v>
+      </c>
+      <c r="F64">
+        <v>0.66342745140892623</v>
+      </c>
+      <c r="G64">
+        <v>0.1863055960236524</v>
+      </c>
+      <c r="H64">
+        <v>0.98863636363636365</v>
+      </c>
+      <c r="I64">
+        <v>0.96821793416572077</v>
+      </c>
+      <c r="J64">
+        <v>0.95322434150772029</v>
+      </c>
+      <c r="K64">
+        <v>0.93841726618705035</v>
+      </c>
+      <c r="L64">
+        <v>0.93841726618705035</v>
+      </c>
+      <c r="M64">
+        <v>0.93841726618705035</v>
+      </c>
+      <c r="N64">
+        <v>0.93841726618705035</v>
+      </c>
+      <c r="O64">
+        <v>0.93841726618705035</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>0.796142578125</v>
+      </c>
+      <c r="T64">
+        <v>0.40926204819277112</v>
+      </c>
+      <c r="U64">
+        <v>0.28378731180924199</v>
+      </c>
+      <c r="V64">
+        <v>0.1816814307203744</v>
+      </c>
+      <c r="W64">
+        <v>0.1034187492071546</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E65">
+        <v>0.28409581110228183</v>
+      </c>
+      <c r="F65">
+        <v>0.66342745140892623</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E66">
+        <v>0.28409581110228183</v>
+      </c>
+      <c r="F66">
+        <v>0.66342745140892623</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E67">
+        <v>0.68411867364746948</v>
+      </c>
+      <c r="F67">
+        <v>0.66614681409209897</v>
+      </c>
+      <c r="G67">
+        <v>0.81243523316062172</v>
+      </c>
+      <c r="H67">
+        <v>0.97247706422018354</v>
+      </c>
+      <c r="I67">
+        <v>0.91724137931034477</v>
+      </c>
+      <c r="J67">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K67">
+        <v>0.89986219568213133</v>
+      </c>
+      <c r="L67">
+        <v>0.87256027554535021</v>
+      </c>
+      <c r="M67">
+        <v>0.84308022045315367</v>
+      </c>
+      <c r="N67">
+        <v>0.79764857169100767</v>
+      </c>
+      <c r="O67">
+        <v>0.68411867364746948</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E68">
+        <v>0.68563424267474971</v>
+      </c>
+      <c r="F68">
+        <v>0.66614681409209897</v>
+      </c>
+      <c r="G68">
+        <v>0.80944294423874608</v>
+      </c>
+      <c r="H68">
+        <v>0.97247706422018354</v>
+      </c>
+      <c r="I68">
+        <v>0.91724137931034477</v>
+      </c>
+      <c r="J68">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K68">
+        <v>0.89986219568213133</v>
+      </c>
+      <c r="L68">
+        <v>0.87256027554535021</v>
+      </c>
+      <c r="M68">
+        <v>0.84308022045315367</v>
+      </c>
+      <c r="N68">
+        <v>0.79764857169100767</v>
+      </c>
+      <c r="O68">
+        <v>0.69146254458977408</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>0.97596670247046191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E69">
+        <v>0.40084504454854408</v>
+      </c>
+      <c r="F69">
+        <v>0.66614681409209897</v>
+      </c>
+      <c r="G69">
+        <v>0.24256850905712959</v>
+      </c>
+      <c r="H69">
+        <v>0.97247706422018354</v>
+      </c>
+      <c r="I69">
+        <v>0.91724137931034477</v>
+      </c>
+      <c r="J69">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K69">
+        <v>0.89986219568213133</v>
+      </c>
+      <c r="L69">
+        <v>0.8973367697594502</v>
+      </c>
+      <c r="M69">
+        <v>0.8973367697594502</v>
+      </c>
+      <c r="N69">
+        <v>0.8973367697594502</v>
+      </c>
+      <c r="O69">
+        <v>0.8973367697594502</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>0.54973684210526319</v>
+      </c>
+      <c r="U69">
+        <v>0.37933539132013799</v>
+      </c>
+      <c r="V69">
+        <v>0.24055734684477201</v>
+      </c>
+      <c r="W69">
+        <v>0.14023899033297529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E70">
+        <v>0.31588132635253052</v>
+      </c>
+      <c r="F70">
+        <v>0.66614681409209897</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E71">
+        <v>0.31588132635253052</v>
+      </c>
+      <c r="F71">
+        <v>0.66614681409209897</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E72">
+        <v>0.743187574379787</v>
+      </c>
+      <c r="F72">
+        <v>0.64889099313622245</v>
+      </c>
+      <c r="G72">
+        <v>0.85267653957917577</v>
+      </c>
+      <c r="H72">
+        <v>0.96646341463414631</v>
+      </c>
+      <c r="I72">
+        <v>0.94503816793893125</v>
+      </c>
+      <c r="J72">
+        <v>0.94203782794386826</v>
+      </c>
+      <c r="K72">
+        <v>0.92584681110772049</v>
+      </c>
+      <c r="L72">
+        <v>0.89838266707354286</v>
+      </c>
+      <c r="M72">
+        <v>0.87102024209134365</v>
+      </c>
+      <c r="N72">
+        <v>0.82820700598071528</v>
+      </c>
+      <c r="O72">
+        <v>0.743187574379787</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E73">
+        <v>0.72353605321778403</v>
+      </c>
+      <c r="F73">
+        <v>0.64889099313622245</v>
+      </c>
+      <c r="G73">
+        <v>0.8335232075263681</v>
+      </c>
+      <c r="H73">
+        <v>0.96646341463414631</v>
+      </c>
+      <c r="I73">
+        <v>0.94503816793893125</v>
+      </c>
+      <c r="J73">
+        <v>0.94203782794386826</v>
+      </c>
+      <c r="K73">
+        <v>0.92584681110772049</v>
+      </c>
+      <c r="L73">
+        <v>0.89838266707354286</v>
+      </c>
+      <c r="M73">
+        <v>0.87102024209134365</v>
+      </c>
+      <c r="N73">
+        <v>0.82820700598071528</v>
+      </c>
+      <c r="O73">
+        <v>0.75434862141217951</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73">
+        <v>0.93126668035311022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E74">
+        <v>0.32650819321961488</v>
+      </c>
+      <c r="F74">
+        <v>0.64889099313622245</v>
+      </c>
+      <c r="G74">
+        <v>0.18197991178977799</v>
+      </c>
+      <c r="H74">
+        <v>0.96646341463414631</v>
+      </c>
+      <c r="I74">
+        <v>0.94503816793893125</v>
+      </c>
+      <c r="J74">
+        <v>0.94203782794386826</v>
+      </c>
+      <c r="K74">
+        <v>0.93488194973343486</v>
+      </c>
+      <c r="L74">
+        <v>0.93488194973343486</v>
+      </c>
+      <c r="M74">
+        <v>0.93488194973343486</v>
+      </c>
+      <c r="N74">
+        <v>0.93488194973343486</v>
+      </c>
+      <c r="O74">
+        <v>0.93488194973343486</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>0.80916282135794326</v>
+      </c>
+      <c r="T74">
+        <v>0.41694972826086962</v>
+      </c>
+      <c r="U74">
+        <v>0.2866985869438281</v>
+      </c>
+      <c r="V74">
+        <v>0.18090044948787859</v>
+      </c>
+      <c r="W74">
+        <v>0.1008006569492917</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E75">
+        <v>0.25693448475786518</v>
+      </c>
+      <c r="F75">
+        <v>0.64889099313622245</v>
+      </c>
+      <c r="G75">
+        <v>3.2842070692557158E-4</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1.261829652996845E-2</v>
+      </c>
+      <c r="Q75">
+        <v>6.462035541195477E-3</v>
+      </c>
+      <c r="R75">
+        <v>2.5906735751295342E-3</v>
+      </c>
+      <c r="S75">
+        <v>1.318391562294001E-3</v>
+      </c>
+      <c r="T75">
+        <v>6.793478260869565E-4</v>
+      </c>
+      <c r="U75">
+        <v>4.6712600724045308E-4</v>
+      </c>
+      <c r="V75">
+        <v>2.9474614987841721E-4</v>
+      </c>
+      <c r="W75">
+        <v>1.642373229316362E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E76">
+        <v>0.256812425620213</v>
+      </c>
+      <c r="F76">
+        <v>0.64889099313622245</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E77">
+        <v>0.70652741514360318</v>
+      </c>
+      <c r="F77">
+        <v>0.63627120703259687</v>
+      </c>
+      <c r="G77">
+        <v>0.82046723520097786</v>
+      </c>
+      <c r="H77">
+        <v>0.88409090909090904</v>
+      </c>
+      <c r="I77">
+        <v>0.87400681044267881</v>
+      </c>
+      <c r="J77">
+        <v>0.88010899182561309</v>
+      </c>
+      <c r="K77">
+        <v>0.87897366030881019</v>
+      </c>
+      <c r="L77">
+        <v>0.8531047792030878</v>
+      </c>
+      <c r="M77">
+        <v>0.83313152716815497</v>
+      </c>
+      <c r="N77">
+        <v>0.79488693125056764</v>
+      </c>
+      <c r="O77">
+        <v>0.72989670340532797</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>0.93669922618292534</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E78">
+        <v>0.69481212396412761</v>
+      </c>
+      <c r="F78">
+        <v>0.63627120703259687</v>
+      </c>
+      <c r="G78">
+        <v>0.80405819072330242</v>
+      </c>
+      <c r="H78">
+        <v>0.88409090909090904</v>
+      </c>
+      <c r="I78">
+        <v>0.87400681044267881</v>
+      </c>
+      <c r="J78">
+        <v>0.88010899182561309</v>
+      </c>
+      <c r="K78">
+        <v>0.87897366030881019</v>
+      </c>
+      <c r="L78">
+        <v>0.8531047792030878</v>
+      </c>
+      <c r="M78">
+        <v>0.83313152716815497</v>
+      </c>
+      <c r="N78">
+        <v>0.79488693125056764</v>
+      </c>
+      <c r="O78">
+        <v>0.74399784192069063</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>0.87466700494735505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E79">
+        <v>0.66534226359405158</v>
+      </c>
+      <c r="F79">
+        <v>0.63627120703259687</v>
+      </c>
+      <c r="G79">
+        <v>0.76834098195762868</v>
+      </c>
+      <c r="H79">
+        <v>0.88409090909090904</v>
+      </c>
+      <c r="I79">
+        <v>0.87400681044267881</v>
+      </c>
+      <c r="J79">
+        <v>0.88010899182561309</v>
+      </c>
+      <c r="K79">
+        <v>0.87897366030881019</v>
+      </c>
+      <c r="L79">
+        <v>0.8531047792030878</v>
+      </c>
+      <c r="M79">
+        <v>0.83313152716815497</v>
+      </c>
+      <c r="N79">
+        <v>0.79488693125056764</v>
+      </c>
+      <c r="O79">
+        <v>0.76159022931206377</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>0.77521248255740205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E80">
+        <v>0.66520603927801114</v>
+      </c>
+      <c r="F80">
+        <v>0.63627120703259687</v>
+      </c>
+      <c r="G80">
+        <v>0.76818110360006286</v>
+      </c>
+      <c r="H80">
+        <v>0.88409090909090904</v>
+      </c>
+      <c r="I80">
+        <v>0.87400681044267881</v>
+      </c>
+      <c r="J80">
+        <v>0.88010899182561309</v>
+      </c>
+      <c r="K80">
+        <v>0.87897366030881019</v>
+      </c>
+      <c r="L80">
+        <v>0.8531047792030878</v>
+      </c>
+      <c r="M80">
+        <v>0.83313152716815497</v>
+      </c>
+      <c r="N80">
+        <v>0.79488693125056764</v>
+      </c>
+      <c r="O80">
+        <v>0.76164349398341546</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>0.7748319167829506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E81">
+        <v>0.61541605176524006</v>
+      </c>
+      <c r="F81">
+        <v>0.63627120703259687</v>
+      </c>
+      <c r="G81">
+        <v>0.70448875630222774</v>
+      </c>
+      <c r="H81">
+        <v>0.88409090909090904</v>
+      </c>
+      <c r="I81">
+        <v>0.87400681044267881</v>
+      </c>
+      <c r="J81">
+        <v>0.88010899182561309</v>
+      </c>
+      <c r="K81">
+        <v>0.87897366030881019</v>
+      </c>
+      <c r="L81">
+        <v>0.8531047792030878</v>
+      </c>
+      <c r="M81">
+        <v>0.83313152716815497</v>
+      </c>
+      <c r="N81">
+        <v>0.79488693125056764</v>
+      </c>
+      <c r="O81">
+        <v>0.78293070689053468</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81">
+        <v>0.64033362932893567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E82">
+        <v>0.68388904197666944</v>
+      </c>
+      <c r="F82">
+        <v>0.62107458665044202</v>
+      </c>
+      <c r="G82">
+        <v>0.8048538459357546</v>
+      </c>
+      <c r="H82">
+        <v>0.83027522935779818</v>
+      </c>
+      <c r="I82">
+        <v>0.81839080459770119</v>
+      </c>
+      <c r="J82">
+        <v>0.83746556473829203</v>
+      </c>
+      <c r="K82">
+        <v>0.84382177308222328</v>
+      </c>
+      <c r="L82">
+        <v>0.81079219288174509</v>
+      </c>
+      <c r="M82">
+        <v>0.79562155541947333</v>
+      </c>
+      <c r="N82">
+        <v>0.75989712501148154</v>
+      </c>
+      <c r="O82">
+        <v>0.69663803680981595</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82">
+        <v>0.95287325456498384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E83">
+        <v>0.67419858546890787</v>
+      </c>
+      <c r="F83">
+        <v>0.62107458665044202</v>
+      </c>
+      <c r="G83">
+        <v>0.79031685977772514</v>
+      </c>
+      <c r="H83">
+        <v>0.83027522935779818</v>
+      </c>
+      <c r="I83">
+        <v>0.81839080459770119</v>
+      </c>
+      <c r="J83">
+        <v>0.83746556473829203</v>
+      </c>
+      <c r="K83">
+        <v>0.84382177308222328</v>
+      </c>
+      <c r="L83">
+        <v>0.81079219288174509</v>
+      </c>
+      <c r="M83">
+        <v>0.79562155541947333</v>
+      </c>
+      <c r="N83">
+        <v>0.75989712501148154</v>
+      </c>
+      <c r="O83">
+        <v>0.7060097169412759</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>0.89748925886143927</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E84">
+        <v>0.65546064113162483</v>
+      </c>
+      <c r="F84">
+        <v>0.62107458665044202</v>
+      </c>
+      <c r="G84">
+        <v>0.76264000506232998</v>
+      </c>
+      <c r="H84">
+        <v>0.83027522935779818</v>
+      </c>
+      <c r="I84">
+        <v>0.81839080459770119</v>
+      </c>
+      <c r="J84">
+        <v>0.83746556473829203</v>
+      </c>
+      <c r="K84">
+        <v>0.84382177308222328</v>
+      </c>
+      <c r="L84">
+        <v>0.81079219288174509</v>
+      </c>
+      <c r="M84">
+        <v>0.79562155541947333</v>
+      </c>
+      <c r="N84">
+        <v>0.75989712501148154</v>
+      </c>
+      <c r="O84">
+        <v>0.72124476361460199</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="U84">
+        <v>1</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="W84">
+        <v>0.80907626208378092</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E85">
+        <v>0.65546064113162483</v>
+      </c>
+      <c r="F85">
+        <v>0.62107458665044202</v>
+      </c>
+      <c r="G85">
+        <v>0.76256488163058611</v>
+      </c>
+      <c r="H85">
+        <v>0.83027522935779818</v>
+      </c>
+      <c r="I85">
+        <v>0.81839080459770119</v>
+      </c>
+      <c r="J85">
+        <v>0.83746556473829203</v>
+      </c>
+      <c r="K85">
+        <v>0.84382177308222328</v>
+      </c>
+      <c r="L85">
+        <v>0.81079219288174509</v>
+      </c>
+      <c r="M85">
+        <v>0.79562155541947333</v>
+      </c>
+      <c r="N85">
+        <v>0.75989712501148154</v>
+      </c>
+      <c r="O85">
+        <v>0.72137724550898208</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <v>0.80874060150375937</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E86">
+        <v>0.61766326811793881</v>
+      </c>
+      <c r="F86">
+        <v>0.62107458665044202</v>
+      </c>
+      <c r="G86">
+        <v>0.70841651781023429</v>
+      </c>
+      <c r="H86">
+        <v>0.83027522935779818</v>
+      </c>
+      <c r="I86">
+        <v>0.81839080459770119</v>
+      </c>
+      <c r="J86">
+        <v>0.83746556473829203</v>
+      </c>
+      <c r="K86">
+        <v>0.84382177308222328</v>
+      </c>
+      <c r="L86">
+        <v>0.81079219288174509</v>
+      </c>
+      <c r="M86">
+        <v>0.79562155541947333</v>
+      </c>
+      <c r="N86">
+        <v>0.75989712501148154</v>
+      </c>
+      <c r="O86">
+        <v>0.74060783595752466</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>0.67890708915145004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E87">
+        <v>0.72130847395563147</v>
+      </c>
+      <c r="F87">
+        <v>0.61435880312831503</v>
+      </c>
+      <c r="G87">
+        <v>0.83090481568569363</v>
+      </c>
+      <c r="H87">
+        <v>0.86890243902439024</v>
+      </c>
+      <c r="I87">
+        <v>0.87022900763358779</v>
+      </c>
+      <c r="J87">
+        <v>0.87126296522269675</v>
+      </c>
+      <c r="K87">
+        <v>0.86756179432407687</v>
+      </c>
+      <c r="L87">
+        <v>0.84971010070186148</v>
+      </c>
+      <c r="M87">
+        <v>0.83440138337910685</v>
+      </c>
+      <c r="N87">
+        <v>0.80550469913340661</v>
+      </c>
+      <c r="O87">
+        <v>0.75664283787429187</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>0.9213303223157463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E88">
+        <v>0.69726282383814964</v>
+      </c>
+      <c r="F88">
+        <v>0.61435880312831503</v>
+      </c>
+      <c r="G88">
+        <v>0.80630234873777307</v>
+      </c>
+      <c r="H88">
+        <v>0.86890243902439024</v>
+      </c>
+      <c r="I88">
+        <v>0.87022900763358779</v>
+      </c>
+      <c r="J88">
+        <v>0.87126296522269675</v>
+      </c>
+      <c r="K88">
+        <v>0.86756179432407687</v>
+      </c>
+      <c r="L88">
+        <v>0.84971010070186148</v>
+      </c>
+      <c r="M88">
+        <v>0.83440138337910685</v>
+      </c>
+      <c r="N88">
+        <v>0.80550469913340661</v>
+      </c>
+      <c r="O88">
+        <v>0.76864949374627756</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+      <c r="V88">
+        <v>1</v>
+      </c>
+      <c r="W88">
+        <v>0.84783412030383909</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E89">
         <v>0.65509139177931708</v>
       </c>
-      <c r="F19">
+      <c r="F89">
         <v>0.61435880312831503</v>
       </c>
-      <c r="G19">
-        <v>0.76182649556440563</v>
-      </c>
-      <c r="H19">
+      <c r="G89">
+        <v>0.76180641898299384</v>
+      </c>
+      <c r="H89">
         <v>0.86890243902439024</v>
       </c>
-      <c r="I19">
+      <c r="I89">
         <v>0.87022900763358779</v>
       </c>
-      <c r="J19">
+      <c r="J89">
         <v>0.87126296522269675</v>
       </c>
-      <c r="K19">
+      <c r="K89">
         <v>0.86756179432407687</v>
       </c>
-      <c r="L19">
+      <c r="L89">
         <v>0.84971010070186148</v>
       </c>
-      <c r="M19">
+      <c r="M89">
         <v>0.83440138337910685</v>
       </c>
-      <c r="N19">
+      <c r="N89">
         <v>0.80550469913340661</v>
       </c>
-      <c r="O19">
-        <v>0.78248636481689893</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>0.74222952165879696</v>
+      <c r="O89">
+        <v>0.78253528444021125</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+      <c r="V89">
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>0.74214740299733117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E90">
+        <v>0.65506087699490401</v>
+      </c>
+      <c r="F90">
+        <v>0.61435880312831503</v>
+      </c>
+      <c r="G90">
+        <v>0.76177028451001061</v>
+      </c>
+      <c r="H90">
+        <v>0.86890243902439024</v>
+      </c>
+      <c r="I90">
+        <v>0.87022900763358779</v>
+      </c>
+      <c r="J90">
+        <v>0.87126296522269675</v>
+      </c>
+      <c r="K90">
+        <v>0.86756179432407687</v>
+      </c>
+      <c r="L90">
+        <v>0.84971010070186148</v>
+      </c>
+      <c r="M90">
+        <v>0.83440138337910685</v>
+      </c>
+      <c r="N90">
+        <v>0.80550469913340661</v>
+      </c>
+      <c r="O90">
+        <v>0.78255033557046982</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
+      <c r="W90">
+        <v>0.74206528433586527</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E91">
+        <v>0.59439748558176442</v>
+      </c>
+      <c r="F91">
+        <v>0.61435880312831503</v>
+      </c>
+      <c r="G91">
+        <v>0.689685763645702</v>
+      </c>
+      <c r="H91">
+        <v>0.86890243902439024</v>
+      </c>
+      <c r="I91">
+        <v>0.87022900763358779</v>
+      </c>
+      <c r="J91">
+        <v>0.87126296522269675</v>
+      </c>
+      <c r="K91">
+        <v>0.86756179432407687</v>
+      </c>
+      <c r="L91">
+        <v>0.84971010070186148</v>
+      </c>
+      <c r="M91">
+        <v>0.83440138337910685</v>
+      </c>
+      <c r="N91">
+        <v>0.80550469913340661</v>
+      </c>
+      <c r="O91">
+        <v>0.79933979111423781</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="W91">
+        <v>0.60648737425579968</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="42">
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1887,7 +6655,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1899,7 +6667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1911,7 +6679,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1923,7 +6691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="M1:M1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1935,7 +6703,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="N1:N1048576">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1947,7 +6715,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="O1:O1048576">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1959,7 +6727,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1971,7 +6739,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="Q1:Q1048576">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1983,7 +6751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="R1:R1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1995,7 +6763,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
+  <conditionalFormatting sqref="S1:S1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2007,7 +6775,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
+  <conditionalFormatting sqref="T29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2019,7 +6787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:T1048576">
+  <conditionalFormatting sqref="T1:T1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2031,7 +6799,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1048576">
+  <conditionalFormatting sqref="U1:U1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2055,7 +6823,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
+  <conditionalFormatting sqref="W1:W1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
